--- a/src/Wizard Tower.xlsx
+++ b/src/Wizard Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian Payton\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian Payton\Documents\GameMakerStudio2\WizardTower\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8C2FE-04E2-4F68-800D-80C5EB142625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A879865-563B-43B6-BE52-F067AF61CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
+    <workbookView xWindow="29370" yWindow="3315" windowWidth="21600" windowHeight="11505" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B95B1-4562-4257-9EDB-A907204B7FCE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/src/Wizard Tower.xlsx
+++ b/src/Wizard Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian Payton\Documents\GameMakerStudio2\WizardTower\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A879865-563B-43B6-BE52-F067AF61CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9304CF-9F87-49BC-B46C-B926EE8B6918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="3315" windowWidth="21600" windowHeight="11505" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
+    <workbookView xWindow="3885" yWindow="480" windowWidth="21600" windowHeight="12750" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>WIZARD TOWER</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Less Idling than other Tower Defense</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>basic attack structure, fires magic missiles to damage enemies.  Can be upgraded into three different tower types (flame, bolt, or ice)</t>
   </si>
 </sst>
 </file>
@@ -248,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}" name="Table1" displayName="Table1" ref="A2:K8" totalsRowShown="0">
-  <autoFilter ref="A2:K8" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}" name="Table1" displayName="Table1" ref="A2:K9" totalsRowShown="0">
+  <autoFilter ref="A2:K9" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{41E4E6C8-44E3-4B32-9C50-F6660EBD2E12}" name="Buildings" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FD491E72-DFAF-4A4A-A651-7C7EC5592EDA}" name="Description" dataDxfId="0"/>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B95B1-4562-4257-9EDB-A907204B7FCE}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,79 +692,89 @@
     </row>
     <row r="6" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/src/Wizard Tower.xlsx
+++ b/src/Wizard Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian Payton\Documents\GameMakerStudio2\WizardTower\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9304CF-9F87-49BC-B46C-B926EE8B6918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC4AE7-A4E0-4B2F-B378-817B087F72F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="480" windowWidth="21600" windowHeight="12750" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
+    <workbookView xWindow="21165" yWindow="3165" windowWidth="21600" windowHeight="12750" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B95B1-4562-4257-9EDB-A907204B7FCE}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>

--- a/src/Wizard Tower.xlsx
+++ b/src/Wizard Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian Payton\Documents\GameMakerStudio2\WizardTower\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC4AE7-A4E0-4B2F-B378-817B087F72F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52187AEE-EC2A-4987-8F3D-F8BAAC8C0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21165" yWindow="3165" windowWidth="21600" windowHeight="12750" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
+    <workbookView xWindow="795" yWindow="1065" windowWidth="27285" windowHeight="14685" xr2:uid="{3B572C5C-39EA-4FDC-AE92-C6809A967981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>WIZARD TOWER</t>
   </si>
@@ -55,12 +55,6 @@
     <t>ice tower</t>
   </si>
   <si>
-    <t>trees</t>
-  </si>
-  <si>
-    <t>mana well</t>
-  </si>
-  <si>
     <t>flame tower</t>
   </si>
   <si>
@@ -76,30 +70,15 @@
     <t>Resources</t>
   </si>
   <si>
-    <t>imp (melee)</t>
-  </si>
-  <si>
-    <t>tiny minion that deals little damage but swarms targets and moves relatively fast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spawns periodically on places where no trees exist.  Yields a large amount of mana when exploited. </t>
-  </si>
-  <si>
     <t>hut</t>
   </si>
   <si>
     <t xml:space="preserve">base unit: population count is dependant upon how many huts are built.  Wizards who are defeated will disappear and respawn at the </t>
   </si>
   <si>
-    <t>trees will grow and propogate throughout the match for as long as they exist.  Exploiting these to gain mana will destroy them</t>
-  </si>
-  <si>
     <t>main building: the player must upgrade and defend to win the game</t>
   </si>
   <si>
-    <t>enemy trooper that will persue/shoot at wizards who get too close.  Will melee structures that block their path</t>
-  </si>
-  <si>
     <t>strikes a single target, dealing damage</t>
   </si>
   <si>
@@ -113,15 +92,6 @@
   </si>
   <si>
     <t>slows nearby enemies</t>
-  </si>
-  <si>
-    <t>footsoldier (melee/ranged)</t>
-  </si>
-  <si>
-    <t>enemy trooper that can charge up before throwing an explosive.  Kill them fast to prevent massive damage to your units and buildings.</t>
-  </si>
-  <si>
-    <t>bombardier (ranged)</t>
   </si>
   <si>
     <t>Column1</t>
@@ -174,19 +144,256 @@
   </si>
   <si>
     <t>basic attack structure, fires magic missiles to damage enemies.  Can be upgraded into three different tower types (flame, bolt, or ice)</t>
+  </si>
+  <si>
+    <t>ASSETS NEEDED CHECKLIST</t>
+  </si>
+  <si>
+    <t>    - music</t>
+  </si>
+  <si>
+    <t>        - startmenu jingle</t>
+  </si>
+  <si>
+    <t>        - stage 1 track</t>
+  </si>
+  <si>
+    <t>    - sound effects</t>
+  </si>
+  <si>
+    <t>        - sndStageVictory</t>
+  </si>
+  <si>
+    <t>        - sndStageDefeat</t>
+  </si>
+  <si>
+    <t>        - sndGruntHurt</t>
+  </si>
+  <si>
+    <t>        - sndGruntKill</t>
+  </si>
+  <si>
+    <t>        - sndGruntAttack</t>
+  </si>
+  <si>
+    <t>        - sndBruteHurt</t>
+  </si>
+  <si>
+    <t>        - sndBruteKill</t>
+  </si>
+  <si>
+    <t>        - sndBruteAttack</t>
+  </si>
+  <si>
+    <t>        - sndGolemHurt</t>
+  </si>
+  <si>
+    <t>        - sndGolemKill</t>
+  </si>
+  <si>
+    <t>        - sndGolemAttack</t>
+  </si>
+  <si>
+    <t>        - sndFiendHurt</t>
+  </si>
+  <si>
+    <t>        - sndFiendKill</t>
+  </si>
+  <si>
+    <t>        - sndFiendAttack</t>
+  </si>
+  <si>
+    <t>        - sndTransportHurt</t>
+  </si>
+  <si>
+    <t>        - sndTransportKill</t>
+  </si>
+  <si>
+    <t>        - sndTransportAttack</t>
+  </si>
+  <si>
+    <t>        - sndTowerBuilt</t>
+  </si>
+  <si>
+    <t>        - sndTowerSold</t>
+  </si>
+  <si>
+    <t>        - sndTowerUpgrade</t>
+  </si>
+  <si>
+    <t>        - sndShootPellet</t>
+  </si>
+  <si>
+    <t>        - sndShootMinigun</t>
+  </si>
+  <si>
+    <t>        - sndShootBomber</t>
+  </si>
+  <si>
+    <t>        - sndShootBolt</t>
+  </si>
+  <si>
+    <t>        - sndShootSniper</t>
+  </si>
+  <si>
+    <t>        - sndShootLaser</t>
+  </si>
+  <si>
+    <t>        - sndShootIce</t>
+  </si>
+  <si>
+    <t>        - sndShootBrittle</t>
+  </si>
+  <si>
+    <t>        - sndShootFrostbite</t>
+  </si>
+  <si>
+    <t>        - sndShootIntel</t>
+  </si>
+  <si>
+    <t>        - sndShootSpotter</t>
+  </si>
+  <si>
+    <t>        - sndShootStalker</t>
+  </si>
+  <si>
+    <t>    - animations</t>
+  </si>
+  <si>
+    <t>        - sGrunt</t>
+  </si>
+  <si>
+    <t>        - sGruntDie</t>
+  </si>
+  <si>
+    <t>        - sBrute</t>
+  </si>
+  <si>
+    <t>        - sBruteDie</t>
+  </si>
+  <si>
+    <t>        - sGolem</t>
+  </si>
+  <si>
+    <t>        - sGolemDie</t>
+  </si>
+  <si>
+    <t>        - sFiend</t>
+  </si>
+  <si>
+    <t>        - sFiendDie</t>
+  </si>
+  <si>
+    <t>        - sTransport</t>
+  </si>
+  <si>
+    <t>        - sTransportDie</t>
+  </si>
+  <si>
+    <t>        - sTowerPelletIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerPelletShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerMinigunIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerMinigunShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerBomberIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerBomberShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerBoltIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerBoltShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerSniperIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerSniperShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerLaserIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerLaserShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerIceIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerIceShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerBrittleIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerBrittleShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerFrostIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerFrostShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerIntelIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerIntelShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerSpotterIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerSpotterShoot</t>
+  </si>
+  <si>
+    <t>        - sTowerStalkerIdle</t>
+  </si>
+  <si>
+    <t>        - sTowerStalkerShoot</t>
+  </si>
+  <si>
+    <t>        - sBtnPause</t>
+  </si>
+  <si>
+    <t>        - sBtnResetCamera</t>
+  </si>
+  <si>
+    <t>        - sBtnMuteSound</t>
+  </si>
+  <si>
+    <t>        - sBtnMuteMusic</t>
+  </si>
+  <si>
+    <t>        - sBtnBuyItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -229,11 +436,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -257,12 +473,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}" name="Table1" displayName="Table1" ref="A2:K9" totalsRowShown="0">
   <autoFilter ref="A2:K9" xr:uid="{108ECF09-9CFD-45B6-AC95-6C3D1451381E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{41E4E6C8-44E3-4B32-9C50-F6660EBD2E12}" name="Buildings" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FD491E72-DFAF-4A4A-A651-7C7EC5592EDA}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{41E4E6C8-44E3-4B32-9C50-F6660EBD2E12}" name="Buildings" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FD491E72-DFAF-4A4A-A651-7C7EC5592EDA}" name="Description" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00E1D9FD-774D-46E3-A175-1CD721369C94}" name="Column1"/>
     <tableColumn id="4" xr3:uid="{773C047D-5208-465E-BD1D-B37FC5961C39}" name="Units"/>
     <tableColumn id="5" xr3:uid="{AE28B9D1-8B70-41BD-ADDE-25A3DE7E3A8C}" name="Description2"/>
-    <tableColumn id="6" xr3:uid="{053D50CC-3EAB-460E-9B92-52A35DD49E65}" name="Column3"/>
+    <tableColumn id="6" xr3:uid="{053D50CC-3EAB-460E-9B92-52A35DD49E65}" name="Column3" dataDxfId="0">
+      <calculatedColumnFormula>F3:K9</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{4CBEF640-3797-4C91-BE16-D5114848BB3C}" name="Resources"/>
     <tableColumn id="8" xr3:uid="{A5302CBA-38EE-4ED3-A0EA-DB64E6F7A871}" name="Description4"/>
     <tableColumn id="9" xr3:uid="{E1169043-0B73-41A2-9429-E88F7B78CA19}" name="Column5"/>
@@ -570,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890B95B1-4562-4257-9EDB-A907204B7FCE}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,155 +808,194 @@
     <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" ca="1" si="0">F3:K9</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -750,35 +1007,440 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="13:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M53" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M59" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M69" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M71" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M73" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M74" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M75" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M76" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M77" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N78" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>